--- a/docs/Data/NBA_Salaries.xlsx
+++ b/docs/Data/NBA_Salaries.xlsx
@@ -1,41 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177B2E4-F420-46C3-85A8-B50430EB920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="125">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>McCants, Rashad</t>
   </si>
   <si>
@@ -391,12 +390,30 @@
   </si>
   <si>
     <t>nba/salaries/</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,6 +546,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,9 +630,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,6 +682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,1884 +874,1884 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2006</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>1538400</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2006</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>2000000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3" s="92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2006</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>8300000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2006</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>2950000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2006</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>3140000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>6480000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8">
         <v>8000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>398762</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
         <v>2120000</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2006</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="11">
         <v>8400000</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2006</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="12">
         <v>1100000</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2006</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="13">
         <v>2750000</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2006</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="14">
         <v>398762</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>2006</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="15">
         <v>5390000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2006</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16">
         <v>1150000</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>2006</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="17">
         <v>1890000</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>2006</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" s="18">
         <v>6000000</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>2006</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="19">
         <v>398762</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>2006</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="20">
         <v>8890000</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>2006</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" s="21">
         <v>8100000</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="22">
         <v>2006</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C22" s="22">
         <v>771123</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="23">
         <v>2006</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C23" s="23">
         <v>398762</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>2006</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="24">
         <v>5200000</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="25">
         <v>2006</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" s="25">
         <v>6270000</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
         <v>2006</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26" s="26">
         <v>1270000</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="27">
         <v>2006</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="27">
         <v>2330000</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>2006</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C28" s="28">
         <v>1020000</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="29">
         <v>2006</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C29" s="29">
         <v>1140000</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="30">
         <v>2006</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30" s="30">
         <v>6000000</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="31">
         <v>2006</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" s="31">
         <v>879360</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <v>2006</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="32">
         <v>1138500</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>2006</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" s="33">
         <v>10970000</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="34">
         <v>2006</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34" s="34">
         <v>880000</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>2006</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C35" s="35">
         <v>2500000</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>2006</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C36" s="36">
         <v>1540000</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="37">
         <v>2006</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C37" s="37">
         <v>1670000</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="38">
         <v>2006</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C38" s="38">
         <v>7350000</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="39">
         <v>2006</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C39" s="39">
         <v>936600</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="40">
         <v>2006</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" s="40">
         <v>3410000</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="41">
         <v>2006</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="41">
         <v>4135200</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="42">
         <v>2006</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" s="42">
         <v>5000000</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="43">
         <v>2006</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C43" s="43">
         <v>398762</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="44">
         <v>2006</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C44" s="44">
         <v>5900400</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="45">
         <v>2006</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C45" s="45">
         <v>1538400</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="46">
         <v>2006</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C46" s="46">
         <v>1250000</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="47">
         <v>2006</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" s="47">
         <v>1538400</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="48">
         <v>2006</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C48" s="48">
         <v>900498</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="49">
         <v>2006</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C49" s="49">
         <v>7230000</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>2006</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C50" s="50">
         <v>5610000</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="51">
         <v>2006</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C51" s="51">
         <v>2950000</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="52">
         <v>2006</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C52" s="52">
         <v>15950000</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="53">
         <v>2006</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C53" s="53">
         <v>641748</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F53" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="54">
+        <v>2006</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
-        <v>2006</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>15</v>
       </c>
       <c r="C54" s="54">
         <v>2950000</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F54" s="54" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G54" s="54"/>
       <c r="H54" s="54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="55">
         <v>2006</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C55" s="55">
         <v>398762</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F55" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="56">
         <v>2006</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" s="56">
         <v>398762</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F56" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="57">
         <v>2006</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C57" s="57">
         <v>5610000</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="58">
         <v>2006</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C58" s="58">
         <v>18612000</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F58" s="58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="59">
         <v>2006</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C59" s="59">
         <v>1700000</v>
       </c>
       <c r="D59" s="59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="60">
         <v>2006</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C60" s="60">
         <v>7500000</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>2006</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C61" s="61">
         <v>2420000</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="62">
         <v>2006</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C62" s="62">
         <v>1680000</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E62" s="62" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F62" s="62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="63">
         <v>2006</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C63" s="63">
         <v>6120000</v>
       </c>
       <c r="D63" s="63" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E63" s="63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F63" s="63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="64">
         <v>2006</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C64" s="64">
         <v>1512840</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E64" s="64" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F64" s="64" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="65">
         <v>2006</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C65" s="65">
         <v>9630000</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F65" s="65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="66">
         <v>2006</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C66" s="66">
         <v>641748</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E66" s="66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F66" s="66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G66" s="66"/>
       <c r="H66" s="66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="67">
         <v>2006</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C67" s="67">
         <v>6480000</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="68">
         <v>2006</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C68" s="68">
         <v>835810</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="69">
         <v>2006</v>
       </c>
       <c r="B69" s="69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C69" s="69">
         <v>398762</v>
       </c>
       <c r="D69" s="69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E69" s="69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="70">
         <v>2006</v>
       </c>
       <c r="B70" s="70" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C70" s="70">
         <v>997800</v>
       </c>
       <c r="D70" s="70" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E70" s="70" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="71">
         <v>2006</v>
       </c>
       <c r="B71" s="71" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C71" s="71">
         <v>873880</v>
       </c>
       <c r="D71" s="71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E71" s="71" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F71" s="71" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G71" s="71"/>
       <c r="H71" s="71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="72">
         <v>2006</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C72" s="72">
         <v>398762</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F72" s="72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="73">
         <v>2006</v>
       </c>
       <c r="B73" s="73" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C73" s="73">
         <v>398762</v>
       </c>
       <c r="D73" s="73" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F73" s="73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="74">
         <v>2006</v>
       </c>
       <c r="B74" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C74" s="74">
         <v>3400000</v>
       </c>
       <c r="D74" s="74" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E74" s="74" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="75">
         <v>2006</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C75" s="75">
         <v>900498</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E75" s="75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="76">
         <v>2006</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C76" s="76">
         <v>3000000</v>
       </c>
       <c r="D76" s="76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76" s="76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F76" s="76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="77">
         <v>2006</v>
       </c>
       <c r="B77" s="77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="77">
         <v>398762</v>
       </c>
       <c r="D77" s="77" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E77" s="77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F77" s="77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="78">
         <v>2006</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C78" s="78">
         <v>4000000</v>
       </c>
       <c r="D78" s="78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E78" s="78" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F78" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="79">
         <v>2006</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C79" s="79">
         <v>6180000</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E79" s="79" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F79" s="79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="80">
         <v>2006</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C80" s="80">
         <v>690960</v>
       </c>
       <c r="D80" s="80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80" s="80" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F80" s="80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="81">
         <v>2006</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C81" s="81">
         <v>5000000</v>
       </c>
       <c r="D81" s="81" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81" s="81" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F81" s="81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="82">
         <v>2006</v>
       </c>
       <c r="B82" s="82" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C82" s="82">
         <v>8250000</v>
       </c>
       <c r="D82" s="82" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E82" s="82" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F82" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="83">
         <v>2006</v>
       </c>
       <c r="B83" s="83" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C83" s="83">
         <v>4620000</v>
       </c>
       <c r="D83" s="83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E83" s="83" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F83" s="83" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G83" s="83"/>
       <c r="H83" s="83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="84">
         <v>2006</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C84" s="84">
         <v>5390000</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G84" s="84"/>
       <c r="H84" s="84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="85">
         <v>2006</v>
       </c>
       <c r="B85" s="85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C85" s="85">
         <v>719373</v>
       </c>
       <c r="D85" s="85" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E85" s="85" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F85" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="86">
         <v>2006</v>
       </c>
       <c r="B86" s="86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C86" s="86">
         <v>3400000</v>
       </c>
       <c r="D86" s="86" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E86" s="86" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F86" s="86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="87">
         <v>2006</v>
       </c>
       <c r="B87" s="87" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C87" s="87">
         <v>4550000</v>
       </c>
       <c r="D87" s="87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E87" s="87" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F87" s="87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="88">
         <v>2006</v>
       </c>
       <c r="B88" s="88" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C88" s="88">
         <v>13150000</v>
       </c>
       <c r="D88" s="88" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E88" s="88" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F88" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="89">
         <v>2006</v>
       </c>
       <c r="B89" s="89" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C89" s="89">
         <v>5500000</v>
       </c>
       <c r="D89" s="89" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E89" s="89" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="90">
         <v>2006</v>
       </c>
       <c r="B90" s="90" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C90" s="90">
         <v>398762</v>
       </c>
       <c r="D90" s="90" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E90" s="90" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F90" s="90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="91">
         <v>2006</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C91" s="91">
         <v>1130000</v>
       </c>
       <c r="D91" s="91" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E91" s="91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2707,24 +2761,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
